--- a/04_computer_vision/report/computer_vision.xlsx
+++ b/04_computer_vision/report/computer_vision.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_lecture\04_computer_vision\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -248,12 +248,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,12 +276,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +288,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97563C1A-45DA-4555-8CCB-2B016A2D2C77}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -616,7 +625,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -629,7 +638,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
@@ -643,7 +652,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -655,7 +664,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -667,7 +676,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -679,7 +688,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1">
@@ -693,7 +702,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -705,7 +714,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -717,7 +726,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -729,7 +738,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -741,7 +750,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -753,7 +762,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -765,7 +774,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1">
@@ -779,7 +788,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -791,7 +800,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -803,19 +812,19 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1">
         <v>4</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1">
         <v>5</v>
       </c>
@@ -827,7 +836,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>6</v>
       </c>
@@ -839,7 +848,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1">
         <v>7</v>
       </c>
@@ -851,7 +860,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1">
         <v>8</v>
       </c>
@@ -863,7 +872,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1">
@@ -877,7 +886,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -889,7 +898,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>3</v>
       </c>
@@ -901,7 +910,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1">
         <v>4</v>
       </c>
@@ -913,7 +922,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>5</v>
       </c>
@@ -925,7 +934,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1">
         <v>6</v>
       </c>
@@ -937,7 +946,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1">
         <v>7</v>
       </c>
@@ -949,7 +958,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1">
@@ -963,11 +972,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>7</v>
       </c>
       <c r="D30" t="s">
@@ -975,7 +984,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1">
         <v>3</v>
       </c>
@@ -987,7 +996,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="1">
         <v>4</v>
       </c>
@@ -999,7 +1008,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="1">
         <v>5</v>
       </c>
@@ -1011,7 +1020,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="1">
         <v>6</v>
       </c>
@@ -1023,7 +1032,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="1">
         <v>7</v>
       </c>
@@ -1035,7 +1044,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="1">
         <v>8</v>
       </c>
@@ -1047,7 +1056,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="1">
         <v>9</v>
       </c>
@@ -1059,7 +1068,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1">
         <v>10</v>
       </c>
@@ -1071,7 +1080,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1">
         <v>11</v>
       </c>
@@ -1083,7 +1092,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1">
         <v>12</v>
       </c>
@@ -1095,7 +1104,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1">
         <v>13</v>
       </c>
@@ -1107,7 +1116,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="1">
         <v>14</v>
       </c>
@@ -1119,7 +1128,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1">
         <v>15</v>
       </c>
